--- a/credits_100.xlsx
+++ b/credits_100.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -391,180 +391,180 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>8324</v>
+        <v>9570</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>21200</v>
+        <v>27200</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>15290</v>
+        <v>6940</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>38400</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>14736</v>
+        <v>13130</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>37100</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>16855</v>
+        <v>16045</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>42400</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>19077</v>
+        <v>13757</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>48100</v>
+        <v>38800</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>16357</v>
+        <v>16143</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>41300</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>17746</v>
+        <v>10870</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>44800</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>8696</v>
+        <v>8889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>22000</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>19968</v>
+        <v>17707</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>50400</v>
+        <v>49200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>18258</v>
+        <v>4568</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>46100</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>7112</v>
+        <v>12387</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -573,32 +573,32 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18200</v>
+        <v>34600</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>17192</v>
+        <v>6441</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>43200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>16365</v>
+        <v>19116</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -607,66 +607,66 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>41300</v>
+        <v>50900</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>17547</v>
+        <v>18698</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>44200</v>
+        <v>52400</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>14227</v>
+        <v>15264</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>36000</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>19449</v>
+        <v>9203</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>48900</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>17443</v>
+        <v>7720</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -675,321 +675,321 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>44000</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>3735</v>
+        <v>7653</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>9600</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>5776</v>
+        <v>16664</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>14800</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>15702</v>
+        <v>15086</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>39600</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>4843</v>
+        <v>16278</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>12500</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>7582</v>
+        <v>13561</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>19200</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>16885</v>
+        <v>7971</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>42500</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>8607</v>
+        <v>9276</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>21700</v>
+        <v>27100</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>15669</v>
+        <v>14058</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>39700</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>7643</v>
+        <v>12793</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>19600</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>16715</v>
+        <v>5254</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>42000</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>4377</v>
+        <v>18896</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>11400</v>
+        <v>52900</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>4011</v>
+        <v>8932</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>10500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>14786</v>
+        <v>19408</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>37200</v>
+        <v>53600</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>16735</v>
+        <v>15967</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>42100</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>11627</v>
+        <v>13976</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>29300</v>
+        <v>37600</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>13497</v>
+        <v>19179</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>34100</v>
+        <v>52300</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>12415</v>
+        <v>6827</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>31400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>14451</v>
+        <v>19734</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>36400</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>9558</v>
+        <v>16890</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -998,143 +998,143 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>24200</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>10099</v>
+        <v>10348</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>25700</v>
+        <v>29100</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>6323</v>
+        <v>13009</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>16100</v>
+        <v>37800</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>15577</v>
+        <v>15193</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>39300</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>4032</v>
+        <v>11733</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>10400</v>
+        <v>34600</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>7241</v>
+        <v>10278</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>18500</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>19573</v>
+        <v>5328</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>49100</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B44">
-        <v>14294</v>
+        <v>4955</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>35900</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>9864</v>
+        <v>12146</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>24900</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1142,58 +1142,58 @@
         <v>32</v>
       </c>
       <c r="B46">
-        <v>5405</v>
+        <v>16097</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>13800</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>16853</v>
+        <v>15364</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>42500</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>4053</v>
+        <v>13301</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>10500</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>15736</v>
+        <v>3773</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1202,15 +1202,15 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>39700</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>12069</v>
+        <v>15897</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1219,83 +1219,83 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>30600</v>
+        <v>42300</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>4907</v>
+        <v>18693</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>12600</v>
+        <v>52700</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>5860</v>
+        <v>16305</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>15000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>12204</v>
+        <v>15105</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>30700</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>9869</v>
+        <v>8640</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>25000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B55">
-        <v>16721</v>
+        <v>4154</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1304,160 +1304,160 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>42200</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>10689</v>
+        <v>19809</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>27000</v>
+        <v>52200</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>5029</v>
+        <v>13483</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>13000</v>
+        <v>37900</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>8509</v>
+        <v>11742</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>21600</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>10543</v>
+        <v>5722</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>26700</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>11489</v>
+        <v>11216</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>29100</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>8676</v>
+        <v>10655</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>22100</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B62">
-        <v>10335</v>
+        <v>4236</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>26300</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>14013</v>
+        <v>13054</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>35300</v>
+        <v>35900</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>12535</v>
+        <v>9935</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>31600</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1465,41 +1465,41 @@
         <v>40</v>
       </c>
       <c r="B65">
-        <v>3736</v>
+        <v>14671</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>9700</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B66">
-        <v>12155</v>
+        <v>7227</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>30800</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>18386</v>
+        <v>12951</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1508,49 +1508,49 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>46200</v>
+        <v>35600</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B68">
-        <v>19134</v>
+        <v>10216</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>48100</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>15756</v>
+        <v>6005</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>39700</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B70">
-        <v>6282</v>
+        <v>14640</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1559,117 +1559,117 @@
         <v>2</v>
       </c>
       <c r="E70">
-        <v>16100</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B71">
-        <v>4235</v>
+        <v>19076</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>10900</v>
+        <v>52400</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B72">
-        <v>17348</v>
+        <v>18430</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>43800</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B73">
-        <v>19691</v>
+        <v>19409</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>49700</v>
+        <v>53900</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B74">
-        <v>5285</v>
+        <v>6877</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>13400</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B75">
-        <v>18863</v>
+        <v>14299</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>47400</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B76">
-        <v>17806</v>
+        <v>6870</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76">
-        <v>44800</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <v>6633</v>
+        <v>11994</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1678,66 +1678,66 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>16900</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B78">
-        <v>13641</v>
+        <v>9928</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>34400</v>
+        <v>29100</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B79">
-        <v>8151</v>
+        <v>16416</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>20600</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B80">
-        <v>10416</v>
+        <v>17410</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>26500</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B81">
-        <v>14312</v>
+        <v>12924</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1746,49 +1746,49 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>36100</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B82">
-        <v>15125</v>
+        <v>8743</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>38100</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B83">
-        <v>9246</v>
+        <v>19723</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>23500</v>
+        <v>51800</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84">
-        <v>11038</v>
+        <v>17388</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1797,24 +1797,24 @@
         <v>3</v>
       </c>
       <c r="E84">
-        <v>27900</v>
+        <v>47400</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B85">
-        <v>19133</v>
+        <v>10382</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85">
-        <v>48100</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1822,24 +1822,24 @@
         <v>44</v>
       </c>
       <c r="B86">
-        <v>17780</v>
+        <v>3781</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>44900</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B87">
-        <v>5123</v>
+        <v>12133</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1848,245 +1848,245 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>13100</v>
+        <v>35400</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B88">
-        <v>15761</v>
+        <v>4824</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>39800</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B89">
-        <v>3543</v>
+        <v>9565</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>9200</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B90">
-        <v>15144</v>
+        <v>8549</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90">
-        <v>38300</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B91">
-        <v>17212</v>
+        <v>13973</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>43300</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B92">
-        <v>3530</v>
+        <v>9906</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>9100</v>
+        <v>28700</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B93">
-        <v>19863</v>
+        <v>8072</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>50100</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B94">
-        <v>12971</v>
+        <v>4374</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>32900</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B95">
-        <v>4458</v>
+        <v>4281</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>11600</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B96">
-        <v>3830</v>
+        <v>7736</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>9900</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B97">
-        <v>16128</v>
+        <v>13903</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>40800</v>
+        <v>39700</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B98">
-        <v>10632</v>
+        <v>19812</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>27000</v>
+        <v>54800</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B99">
-        <v>4818</v>
+        <v>6926</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>12300</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B100">
-        <v>16463</v>
+        <v>14233</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>41600</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B101">
-        <v>10708</v>
+        <v>16845</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>27200</v>
+        <v>44900</v>
       </c>
     </row>
   </sheetData>
